--- a/data/trans_bre/P59A-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P59A-Edad-trans_bre.xlsx
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.5861343134027068</v>
+        <v>0.4044879006449966</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-0.8275153812994207</v>
+        <v>-0.5984949616970459</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>2.646318675325821</v>
+        <v>2.705708920788403</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-3.6292891019915</v>
+        <v>-3.05807318644385</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.05166100910930537</v>
+        <v>0.05341589059606896</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.0945203024329576</v>
+        <v>-0.07885514603692434</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2918025818053055</v>
+        <v>0.2925340768148716</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.4684891796283978</v>
+        <v>-0.4590862139958362</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>8.025968040694304</v>
+        <v>7.992635383810306</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>7.606198266542476</v>
+        <v>7.547677352232329</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>11.51713322881621</v>
+        <v>11.32503603182522</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>6.910471981377307</v>
+        <v>6.98847968220355</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>1.885144786062347</v>
+        <v>1.895769060320271</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>1.274564073550539</v>
+        <v>1.195148119002919</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>2.296386082749545</v>
+        <v>2.439042989273268</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>2.226066778692695</v>
+        <v>2.33749988695788</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>-1.794271601681335</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>1.679265304728517</v>
+        <v>1.679265304728511</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.152238630322719</v>
@@ -749,7 +749,7 @@
         <v>-0.05486920941535491</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.05813624547351829</v>
+        <v>0.0581362454735181</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-3.082418248502759</v>
+        <v>-3.476958985636534</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.4945891269471209</v>
+        <v>0.4081512478382112</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-8.987264853670949</v>
+        <v>-8.465605232690082</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-6.746732086100058</v>
+        <v>-6.632693074589435</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.1234239996270439</v>
+        <v>-0.1284178646661049</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.02062754385575921</v>
+        <v>0.01276999877753071</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.2498883824717248</v>
+        <v>-0.2291478456149001</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.2102950387566207</v>
+        <v>-0.2096343439400765</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>10.48491158544692</v>
+        <v>10.75996737074168</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>14.41275864228469</v>
+        <v>15.02698311156652</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>5.17184478055828</v>
+        <v>5.511472564686906</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>10.09038546945835</v>
+        <v>10.02268582045865</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.4778424180085437</v>
+        <v>0.5108309361579195</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.725340416827179</v>
+        <v>0.7223283182246761</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1758954670028496</v>
+        <v>0.1956566667926775</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.4078241289082604</v>
+        <v>0.4214635715271244</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>1.733590226513501</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>2.775362688544736</v>
+        <v>2.775362688544742</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.07023374478395047</v>
@@ -849,7 +849,7 @@
         <v>0.06979724237272943</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.09165156132515702</v>
+        <v>0.09165156132515721</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-7.242138342503508</v>
+        <v>-7.296513661162013</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-2.601658884511083</v>
+        <v>-0.667269599759489</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-7.12640238258205</v>
+        <v>-7.972524654371201</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-5.595526053401738</v>
+        <v>-5.384283424126836</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.492419138262911</v>
+        <v>-0.4637535218270835</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.09223098086085814</v>
+        <v>-0.02438435443531418</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.2434981784755477</v>
+        <v>-0.2782213304804692</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.1638838536304861</v>
+        <v>-0.1546211675724092</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>9.012912706013445</v>
+        <v>9.754724779559698</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>20.11162683643099</v>
+        <v>20.50665860491224</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>11.09998969288217</v>
+        <v>11.37237219049612</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>10.55362436399687</v>
+        <v>10.94880471066438</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>1.203975692074863</v>
+        <v>1.334797202493791</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>1.238018407089999</v>
+        <v>1.22242530729986</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.5738417410072697</v>
+        <v>0.5749310023018683</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.4108116292507596</v>
+        <v>0.4240958961160954</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>-2.540549017785236</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>5.613715551067566</v>
+        <v>5.613715551067562</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>-0.8973176924254765</v>
@@ -949,7 +949,7 @@
         <v>-0.199249060257408</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.4667439729295462</v>
+        <v>0.4667439729295458</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-26.54970586046394</v>
+        <v>-26.79245738892664</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-19.75132729118279</v>
+        <v>-20.53619510223818</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-9.437267629849737</v>
+        <v>-9.738485578749707</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-0.3327809419176853</v>
+        <v>0.2180322774215594</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>-1</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.789120834844639</v>
+        <v>-0.8019762650313698</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.5866027387088644</v>
+        <v>-0.6101940298170917</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.05870701480737133</v>
+        <v>0.01075965194282455</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>-7.979596366600203</v>
+        <v>-8.055271928028015</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>-0.5515623155217901</v>
+        <v>-1.373412802581155</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>4.78123808870266</v>
+        <v>5.209147378912126</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>11.40635445030519</v>
+        <v>12.35528175187575</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>-0.5762889697018925</v>
+        <v>-0.5188742903243339</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.008953161358061351</v>
+        <v>-0.005076058182626496</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.5600551428261583</v>
+        <v>0.5944741700787686</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>1.240755053660759</v>
+        <v>1.32805213359729</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>-11.42995114942699</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>-4.681356983046668</v>
+        <v>-4.681356983046666</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>-0.7602656455119075</v>
@@ -1049,7 +1049,7 @@
         <v>-0.6947827600819081</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>-0.3755391234965604</v>
+        <v>-0.3755391234965603</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-21.23048865070552</v>
+        <v>-21.96722846271324</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-14.7531454480662</v>
+        <v>-13.48859243581651</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-21.61645754220694</v>
+        <v>-20.82256539343099</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-10.51845958131452</v>
+        <v>-11.07204911217123</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.9502357462766841</v>
+        <v>-1</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.7360325671873776</v>
+        <v>-0.6780431030204362</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.8950620190593901</v>
+        <v>-0.8884106907444406</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>-0.6376285926456851</v>
+        <v>-0.6570806937573932</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>-1.048873617835498</v>
+        <v>-1.588172461589807</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>9.072769248936897</v>
+        <v>9.324046187933309</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>-3.4225818512452</v>
+        <v>-2.780492568963834</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.4724674468844353</v>
+        <v>0.2098840430768341</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.07135939946908459</v>
+        <v>-0.05305598251699681</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>1.631856400886094</v>
+        <v>2.051357451262706</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>-0.2069347396606666</v>
+        <v>-0.2278804133521729</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.07258480609574677</v>
+        <v>0.03238847228613231</v>
       </c>
     </row>
     <row r="19">
@@ -1160,22 +1160,22 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>-11.54711110344937</v>
+        <v>-9.831947732344506</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>-10.75468913416851</v>
+        <v>-11.02456684872137</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>-13.61272716805774</v>
+        <v>-14.11754148408916</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>-12.04919908549264</v>
+        <v>-12.08887307650894</v>
       </c>
       <c r="G20" s="6" t="inlineStr"/>
       <c r="H20" s="6" t="inlineStr"/>
       <c r="I20" s="6" t="inlineStr"/>
       <c r="J20" s="6" t="n">
-        <v>-0.89745462446572</v>
+        <v>-0.9007644400431581</v>
       </c>
     </row>
     <row r="21">
@@ -1189,19 +1189,19 @@
         <v>0</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>2.939006698008066</v>
+        <v>2.667376427997663</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>-2.480464748569691</v>
+        <v>-2.455152874476237</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>-2.514375459804256</v>
+        <v>-2.625319250946458</v>
       </c>
       <c r="G21" s="6" t="inlineStr"/>
       <c r="H21" s="6" t="inlineStr"/>
       <c r="I21" s="6" t="inlineStr"/>
       <c r="J21" s="6" t="n">
-        <v>-0.373366979201079</v>
+        <v>-0.415491450578241</v>
       </c>
     </row>
     <row r="22">
@@ -1225,7 +1225,7 @@
         <v>-1.536604446816152</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>-6.097599095016791</v>
+        <v>-6.097599095016789</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>-1</v>
@@ -1250,22 +1250,22 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-8.815744248438007</v>
+        <v>-8.385525129977566</v>
       </c>
       <c r="D23" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-6.985437719557641</v>
+        <v>-6.673504198886835</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-11.74204860000648</v>
+        <v>-10.98425664333321</v>
       </c>
       <c r="G23" s="6" t="inlineStr"/>
       <c r="H23" s="6" t="inlineStr"/>
       <c r="I23" s="6" t="inlineStr"/>
       <c r="J23" s="6" t="n">
-        <v>-0.9702777734545258</v>
+        <v>-0.9655077967687549</v>
       </c>
     </row>
     <row r="24">
@@ -1279,19 +1279,19 @@
         <v>0</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>3.024442996734876</v>
+        <v>3.374065302715035</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.9303749023898381</v>
+        <v>0.9359934948895202</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>-2.564072772589022</v>
+        <v>-2.322446576998247</v>
       </c>
       <c r="G24" s="6" t="inlineStr"/>
       <c r="H24" s="6" t="inlineStr"/>
       <c r="I24" s="6" t="inlineStr"/>
       <c r="J24" s="6" t="n">
-        <v>-0.6266216428563414</v>
+        <v>-0.6052966724076076</v>
       </c>
     </row>
     <row r="25">
@@ -1338,28 +1338,28 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>-5.913113556012548</v>
+        <v>-6.175897103345701</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>-4.032375015185539</v>
+        <v>-3.763622350545692</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>-6.113940870717893</v>
+        <v>-6.114077963842849</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>-5.305654741909244</v>
+        <v>-5.171753864792089</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.3961583765360256</v>
+        <v>-0.396289390896632</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.2386808772358182</v>
+        <v>-0.22415747956322</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.319985023224208</v>
+        <v>-0.3242043279242326</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.2948579299857681</v>
+        <v>-0.2864056833765566</v>
       </c>
     </row>
     <row r="27">
@@ -1370,28 +1370,28 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>-0.7260569705490457</v>
+        <v>-0.9473429071810846</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>1.787315250567715</v>
+        <v>2.084344010270078</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>-0.7338346812901367</v>
+        <v>-0.6156683433757841</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>-0.03053732024480053</v>
+        <v>0.1071978077594954</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>-0.05845348082100316</v>
+        <v>-0.0724978203360121</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.1328784299572967</v>
+        <v>0.1537299489273419</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>-0.04446365603385387</v>
+        <v>-0.04423708959961689</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>-0.004505295027733954</v>
+        <v>0.0102864108848999</v>
       </c>
     </row>
     <row r="28">
